--- a/ClientExcel/Game/Entity.xlsx
+++ b/ClientExcel/Game/Entity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>#</t>
   </si>
@@ -44,10 +44,7 @@
     <t>AssetId</t>
   </si>
   <si>
-    <t>GroupName</t>
-  </si>
-  <si>
-    <t>Priority</t>
+    <t>EntityGroupId</t>
   </si>
   <si>
     <t>Int32</t>
@@ -68,19 +65,13 @@
     <t>资源编号</t>
   </si>
   <si>
-    <t>实体组名称</t>
-  </si>
-  <si>
-    <t>实体加载优先级</t>
+    <t>实体组编号</t>
   </si>
   <si>
     <t>宿主实体</t>
   </si>
   <si>
     <t>HostEntity</t>
-  </si>
-  <si>
-    <t>Host</t>
   </si>
 </sst>
 </file>
@@ -1034,13 +1025,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="16384" width="19" style="1" customWidth="1"/>
   </cols>
@@ -1053,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1069,71 +1060,59 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:6">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1">
         <v>3004</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
+      <c r="F5" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ClientExcel/Game/Entity.xlsx
+++ b/ClientExcel/Game/Entity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>#</t>
   </si>
@@ -44,7 +44,10 @@
     <t>AssetId</t>
   </si>
   <si>
-    <t>EntityGroupId</t>
+    <t>GroupName</t>
+  </si>
+  <si>
+    <t>GroupId</t>
   </si>
   <si>
     <t>Int32</t>
@@ -65,6 +68,9 @@
     <t>资源编号</t>
   </si>
   <si>
+    <t>实体组名称</t>
+  </si>
+  <si>
     <t>实体组编号</t>
   </si>
   <si>
@@ -72,6 +78,9 @@
   </si>
   <si>
     <t>HostEntity</t>
+  </si>
+  <si>
+    <t>Host</t>
   </si>
 </sst>
 </file>
@@ -1025,13 +1034,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="16384" width="19" style="1" customWidth="1"/>
   </cols>
@@ -1044,7 +1053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1060,58 +1069,70 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:7">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1">
         <v>3004</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1">
         <v>1</v>
       </c>
     </row>
